--- a/biology/Médecine/Jean-Laurent_Casanova/Jean-Laurent_Casanova.xlsx
+++ b/biology/Médecine/Jean-Laurent_Casanova/Jean-Laurent_Casanova.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Laurent Casanova, né le 14 juin 1963 à Paris, est un médecin, pédiatre et immunologue français. Il dirige ses recherches à l'université Rockefeller[1], au Howard Hughes Medical Institute[2] ainsi qu'à l'université Paris Descartes, désormais Université de Paris, au sein de l'Institut Imagine[3]. Il a reçu le Grand Prix de l'Inserm en 2016 pour ses travaux sur la génétique humaine des maladies infectieuses[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Laurent Casanova, né le 14 juin 1963 à Paris, est un médecin, pédiatre et immunologue français. Il dirige ses recherches à l'université Rockefeller, au Howard Hughes Medical Institute ainsi qu'à l'université Paris Descartes, désormais Université de Paris, au sein de l'Institut Imagine. Il a reçu le Grand Prix de l'Inserm en 2016 pour ses travaux sur la génétique humaine des maladies infectieuses.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Laurent Casanova a reçu son doctorat en médecine en 1987 à la faculté de médecine de l'université Paris-Descartes. Il effectue sa formation interne à l'Institut Pasteur et à l'Institut Ludwig pour la recherche sur le cancer et passe son doctorat en immunologie à l'université Pierre-et-Marie-Curie en 1992[5]. Il a ensuite effectué une formation en immunologie et hématologie en pédiatrie à l'hôpital Necker-Enfants malades. En 1999, il est nommé professeur de pédiatrie à l'hôpital Necker où il fonde et dirige avec Laurent Abel, le laboratoire de génétique humaine des maladies infectieuses. En 2008, Il est nommé professeur à l'université Rockefeller à New York[6]. Il rejoint le Howard Hughes Medical Institute en 2014. Il est membre de l'académie nationale des sciences des États-Unis [7] et de l'académie américaine de médecine[8]  depuis 2015.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Laurent Casanova a reçu son doctorat en médecine en 1987 à la faculté de médecine de l'université Paris-Descartes. Il effectue sa formation interne à l'Institut Pasteur et à l'Institut Ludwig pour la recherche sur le cancer et passe son doctorat en immunologie à l'université Pierre-et-Marie-Curie en 1992. Il a ensuite effectué une formation en immunologie et hématologie en pédiatrie à l'hôpital Necker-Enfants malades. En 1999, il est nommé professeur de pédiatrie à l'hôpital Necker où il fonde et dirige avec Laurent Abel, le laboratoire de génétique humaine des maladies infectieuses. En 2008, Il est nommé professeur à l'université Rockefeller à New York. Il rejoint le Howard Hughes Medical Institute en 2014. Il est membre de l'académie nationale des sciences des États-Unis  et de l'académie américaine de médecine  depuis 2015.
 </t>
         </is>
       </c>
@@ -542,17 +556,19 @@
           <t>Récompenses et honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1997 : Prix Claude Paoletti du CNRS
-2004: Prix de la Fondation de Physiopathologie Professeur Lucien Dautrebande[9]
-2005: Membre de l'organisation européenne de biologie moléculaire (EMBO) [10]
-2008: prix Richard Lounsbery de l'Académie des Sciences française et l'Académie nationale des Sciences américaine[11]
-2011: Prix de la Fondation Artois-Baillet Latour[12]
+2004: Prix de la Fondation de Physiopathologie Professeur Lucien Dautrebande
+2005: Membre de l'organisation européenne de biologie moléculaire (EMBO) 
+2008: prix Richard Lounsbery de l'Académie des Sciences française et l'Académie nationale des Sciences américaine
+2011: Prix de la Fondation Artois-Baillet Latour
 2014:
-co-lauréat du Prix Robert Koch (en) avec Alain Fischer[13],[14]
-Prix Sanofi-Institut Pasteur[15]
-2016: Grand Prix de l'Inserm[4]</t>
+co-lauréat du Prix Robert Koch (en) avec Alain Fischer,
+Prix Sanofi-Institut Pasteur
+2016: Grand Prix de l'Inserm</t>
         </is>
       </c>
     </row>
@@ -580,9 +596,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur en 2021[16] (chevalier en 2020[17]).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur en 2021 (chevalier en 2020).</t>
         </is>
       </c>
     </row>
@@ -610,7 +628,9 @@
           <t>Publication sélective</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Impairment of immunity to Candida and Mycobacterium in humans with bi-allelic RORC mutations, 9 juillet 2015, Science
 Life-threatening influenza and impaired interferon amplification in human IRF7 deficiency, 24 avril 2015, Science
